--- a/기획/웨이브 레벨디자인 초안.xlsx
+++ b/기획/웨이브 레벨디자인 초안.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김민성\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2학년 팀플\0414\Vampire\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74A102FD-8EFA-48CE-BE35-BB16A57C89DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4378CAF7-ABAF-40A6-BAF9-CBF07EBEFAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="1335" windowWidth="22350" windowHeight="11430" xr2:uid="{7482BCC5-F372-4EE0-AA3F-4031553E637B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7482BCC5-F372-4EE0-AA3F-4031553E637B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>몬스터1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,54 @@
   </si>
   <si>
     <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치3(피해X/자폭)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치3(피해O/자폭)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 EXP(최소/평균/최대)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52/53/54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54/55.5/57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56/58/60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57/60/63</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,12 +196,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,285 +540,743 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A38555-5797-40A1-9BF9-E8A32DCB8BE9}">
-  <dimension ref="E1:I16"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="1.5" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="18.25" customWidth="1"/>
+    <col min="11" max="11" width="19.625" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="13" width="44.125" customWidth="1"/>
+    <col min="14" max="14" width="11.25" customWidth="1"/>
+    <col min="15" max="15" width="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
+      <c r="B2" s="1">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <f>SUM(B2:E2)</f>
+        <v>15</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <f>SUM(D2:G2)</f>
+        <v>15</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <f>SUM(H2:L2)</f>
+        <v>15</v>
+      </c>
+      <c r="N2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
+      <c r="B3" s="1">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <f>SUM(B3:E3)</f>
+        <v>18</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <f>SUM(D3:G3)</f>
+        <v>18</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <f>SUM(H3:L3)</f>
+        <v>18</v>
+      </c>
+      <c r="N3" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
+      <c r="B4" s="1">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f>SUM(B4:E4)</f>
+        <v>21</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <f>SUM(D4:G4)</f>
+        <v>21</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <f>SUM(H4:L4)</f>
+        <v>21</v>
+      </c>
+      <c r="N4" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
+      <c r="B5" s="1">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f>SUM(B5:E5)</f>
+        <v>24</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <f>SUM(D5:G5)</f>
+        <v>24</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <f>SUM(H5:L5)</f>
+        <v>24</v>
+      </c>
+      <c r="N5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
       <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+        <f>SUM(B6:E6)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1">
+        <f>SUM(H6:L6)</f>
+        <v>30</v>
+      </c>
+      <c r="N6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B7" s="1">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f ca="1">SUM(B7:E7)</f>
+        <v>0</v>
+      </c>
       <c r="F7" s="1">
-        <v>22</v>
-      </c>
-      <c r="G7">
+        <f ca="1">SUM(B7:E7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <f>SUM(H7:L7)</f>
+        <v>34</v>
+      </c>
+      <c r="N7" s="1">
+        <f>SUM(H7:I7)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <f>SUM(B8:E8)</f>
+        <v>38</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" ref="M7:M16" si="0">SUM(H8:L8)</f>
+        <v>38</v>
+      </c>
+      <c r="N8" s="1">
+        <f>SUM(H8:I8)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <f>SUM(B9:E9)</f>
+        <v>42</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="N9" s="1">
+        <f>SUM(H9:I9)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <f>SUM(B10:E10)</f>
+        <v>46</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>36</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="N10" s="1">
+        <f>SUM(H10:I10)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <f>SUM(B11:E11)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>50</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="N11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f>SUM(B12:E12)</f>
+        <v>54</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <f>SUM(B13:E13)</f>
+        <v>57</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <v>39</v>
+      </c>
+      <c r="I13" s="1">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1">
         <v>3</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>21</v>
-      </c>
-      <c r="G8">
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <f>SUM(B14:E14)</f>
+        <v>61</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>38</v>
+      </c>
+      <c r="I14" s="1">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1">
         <v>4</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
         <v>12</v>
       </c>
-      <c r="F10">
-        <v>17</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f>SUM(B15:E15)</f>
+        <v>63</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <v>36</v>
+      </c>
+      <c r="I15" s="1">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1">
+        <v>6</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>17</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>18</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="F16" s="1">
+        <f>SUM(B16:E16)</f>
         <v>1</v>
       </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>75</v>
+      </c>
+      <c r="M16" s="1">
+        <f>SUM(H16:L16)</f>
+        <v>75</v>
+      </c>
+      <c r="N16" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
